--- a/MarsEdu/Data/import/school.xlsx
+++ b/MarsEdu/Data/import/school.xlsx
@@ -44,13 +44,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>汉西省剑北县青河镇北大街</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>186</t>
@@ -74,15 +78,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -93,6 +96,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -121,37 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -182,6 +185,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,35 +239,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -251,6 +254,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -275,30 +302,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,6 +332,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,72 +411,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,26 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -542,141 +525,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
